--- a/prob3/22.xlsx
+++ b/prob3/22.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/pr/repl/prob3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amd\PycharmProjects\infegerep\prob3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05B812B-CED3-C84D-A1B9-BF5B0CEA466D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="32320" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="495" windowWidth="32325" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="Задание" sheetId="2" r:id="rId1"/>
@@ -26,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>ID процесса B</t>
-  </si>
-  <si>
-    <t>Время выполнения процесса B (мс)</t>
-  </si>
-  <si>
-    <t>ID процессов A</t>
-  </si>
-  <si>
-    <t>1001; 1002</t>
-  </si>
-  <si>
-    <t>1004;1005</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>В файле содержится информация о совокупности N вычислительных процессов, которые могут выполняться параллельно или последовательно.</t>
   </si>
@@ -64,8 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +66,60 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,20 +131,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,220 +482,841 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1ED3AF-6CAA-714C-92A4-D14AB320F107}">
-  <dimension ref="A1:A10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="126.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="126.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="54" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="157.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+    </row>
+    <row r="9" spans="1:1" ht="105" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="81" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="135" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5"/>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:1" ht="81" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="54" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:1" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14:Y14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1001</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4">
+        <f>VLOOKUP(C1,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <f>VLOOKUP(D1,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G1" s="5">
+        <f>B1+MAX(E1,F1)</f>
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <f>G1-B1</f>
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <v>3</v>
+      </c>
+      <c r="M1">
+        <v>4</v>
+      </c>
+      <c r="N1">
+        <v>5</v>
+      </c>
+      <c r="O1">
+        <v>6</v>
+      </c>
+      <c r="P1">
+        <v>7</v>
+      </c>
+      <c r="Q1">
+        <v>8</v>
+      </c>
+      <c r="R1">
+        <v>9</v>
+      </c>
+      <c r="S1">
+        <v>10</v>
+      </c>
+      <c r="T1">
+        <v>11</v>
+      </c>
+      <c r="U1">
+        <v>12</v>
+      </c>
+      <c r="V1">
+        <v>13</v>
+      </c>
+      <c r="W1">
+        <v>14</v>
+      </c>
+      <c r="X1">
+        <v>15</v>
+      </c>
+      <c r="Y1">
+        <v>16</v>
+      </c>
+      <c r="Z1">
+        <v>17</v>
+      </c>
+      <c r="AA1">
+        <v>18</v>
+      </c>
+      <c r="AB1">
+        <v>19</v>
+      </c>
+      <c r="AC1">
+        <v>20</v>
+      </c>
+      <c r="AD1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1002</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:F13" si="0">VLOOKUP(C2,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" ref="G2:G12" si="1">B2+MAX(E2,F2)</f>
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H12" si="2">G2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1003</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
         <v>1001</v>
       </c>
-      <c r="B2">
+      <c r="D3" s="3">
+        <v>1002</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3">
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G3" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1004</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1005</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
         <v>1003</v>
       </c>
-      <c r="B4">
+      <c r="D5" s="3"/>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1006</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1004</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1007</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C7" s="2">
         <v>1004</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="D7" s="3">
         <v>1005</v>
       </c>
-      <c r="B6">
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1008</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1006</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I8">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1006</v>
-      </c>
-      <c r="B7">
+      <c r="AB8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1009</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1010</v>
+      </c>
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1007</v>
-      </c>
-      <c r="B8">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1011</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1009</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1012</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f>SUM(J2:J13)</f>
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:AD14" si="3">SUM(K2:K13)</f>
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1008</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1009</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1010</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1011</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1012</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1010</v>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/prob3/22.xlsx
+++ b/prob3/22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="945" yWindow="495" windowWidth="32325" windowHeight="14940"/>
+    <workbookView xWindow="945" yWindow="495" windowWidth="32325" windowHeight="14940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Задание" sheetId="2" r:id="rId1"/>
@@ -263,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -298,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -538,7 +538,7 @@
     </row>
     <row r="11" spans="1:1" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -550,10 +550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:Y14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1001</v>
       </c>
@@ -657,7 +657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1002</v>
       </c>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1003</v>
       </c>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1004</v>
       </c>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1005</v>
       </c>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1006</v>
       </c>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1007</v>
       </c>
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1008</v>
       </c>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1009</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1010</v>
       </c>
@@ -1053,29 +1053,29 @@
       <c r="I10">
         <v>9</v>
       </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
       <c r="P10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1011</v>
       </c>
@@ -1105,26 +1105,26 @@
       <c r="I11">
         <v>10</v>
       </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1012</v>
       </c>
@@ -1154,24 +1154,6 @@
       <c r="I12">
         <v>11</v>
       </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1</v>
-      </c>
       <c r="W12" s="3">
         <v>1</v>
       </c>
@@ -1181,8 +1163,26 @@
       <c r="Y12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1199,24 +1199,6 @@
       <c r="I13">
         <v>12</v>
       </c>
-      <c r="P13" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3">
-        <v>1</v>
-      </c>
-      <c r="S13" s="3">
-        <v>1</v>
-      </c>
-      <c r="T13" s="3">
-        <v>1</v>
-      </c>
-      <c r="U13" s="3">
-        <v>1</v>
-      </c>
       <c r="V13" s="3">
         <v>1</v>
       </c>
@@ -1232,31 +1214,49 @@
       <c r="Z13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J14">
         <f>SUM(J2:J13)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <f t="shared" ref="K14:AD14" si="3">SUM(K2:K13)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <f t="shared" si="3"/>
@@ -1300,23 +1300,23 @@
       </c>
       <c r="Z14">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>SUM(AA2:AA13)</f>
+        <v>4</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>SUM(AB2:AB13)</f>
+        <v>4</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>SUM(AC2:AC13)</f>
+        <v>4</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>SUM(AD2:AD13)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
